--- a/BOM/Lineux Stealth r2t Bom.xlsx
+++ b/BOM/Lineux Stealth r2t Bom.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
   <si>
     <t>Lineux Stealth r2t Bill Of Material</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Currently Bom kit is for previous Lineux r2.1</t>
   </si>
   <si>
-    <t>Lineux r2.1 Voron Carriage</t>
+    <t>Lineux r2t Voron Carriage</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -106,7 +106,7 @@
     <t>5015 blower fan 24V 50mm wire</t>
   </si>
   <si>
-    <t>Lineux r2.1 Vzbot Carriage</t>
+    <t>Lineux r2t Vzbot Carriage</t>
   </si>
   <si>
     <t>m3 x 10mm shcs</t>
@@ -127,7 +127,7 @@
     <t>5015 blower fan 24v</t>
   </si>
   <si>
-    <t>Lineux r2.1 Toolhead</t>
+    <t>Lineux r2t Toolhead</t>
   </si>
   <si>
     <t>including 2 for klicky mount</t>
@@ -169,25 +169,47 @@
     <t>m4 x 12mm set screw</t>
   </si>
   <si>
-    <t>PG7 flex cable gland</t>
-  </si>
-  <si>
     <t>ws2812 Addressable Led</t>
   </si>
   <si>
     <t>microswitch 90deg</t>
   </si>
   <si>
-    <t>3010 axial fan 24v 100mm wire</t>
+    <t>3010 axial fan 24v 150mm wire</t>
   </si>
   <si>
     <t>Ring Terminal (RNB 1.25-3)</t>
   </si>
   <si>
+    <t>PG7 flex cable gland</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">You can use </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>PUG</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> as alternative</t>
+    </r>
+  </si>
+  <si>
     <t>Cable Tie</t>
   </si>
   <si>
-    <t>Lineux r2.1 Dock</t>
+    <t>Lineux r2t Dock</t>
   </si>
   <si>
     <t>m3 x 6mm bhcs</t>
@@ -257,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -311,6 +333,16 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -427,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -462,7 +494,7 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -501,10 +533,19 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1411,9 +1452,7 @@
         <v>1.0</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="20" t="s">
-        <v>19</v>
-      </c>
+      <c r="D22" s="20"/>
       <c r="E22" s="10"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2338,7 +2377,9 @@
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="10"/>
+      <c r="E50" s="27" t="s">
+        <v>40</v>
+      </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2660,7 +2701,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="17">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2760,7 +2801,7 @@
         <v>52</v>
       </c>
       <c r="B63" s="19">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="20" t="s">
@@ -2794,10 +2835,10 @@
         <v>53</v>
       </c>
       <c r="B64" s="19">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C64" s="4"/>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E64" s="10"/>
@@ -2824,14 +2865,14 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="19">
         <v>1.0</v>
       </c>
       <c r="C65" s="4"/>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E65" s="10"/>
@@ -2862,7 +2903,7 @@
         <v>55</v>
       </c>
       <c r="B66" s="19">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="20" t="s">
@@ -2896,13 +2937,15 @@
         <v>56</v>
       </c>
       <c r="B67" s="19">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="10"/>
+      <c r="E67" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -2927,7 +2970,7 @@
     </row>
     <row r="68">
       <c r="A68" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B68" s="19">
         <v>2.0</v>
@@ -2987,7 +3030,7 @@
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>8</v>
@@ -3089,7 +3132,7 @@
     </row>
     <row r="73">
       <c r="A73" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B73" s="19">
         <v>1.0</v>
@@ -3121,7 +3164,7 @@
     </row>
     <row r="74">
       <c r="A74" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B74" s="19">
         <v>2.0</v>
@@ -3153,7 +3196,7 @@
     </row>
     <row r="75">
       <c r="A75" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B75" s="19">
         <v>1.0</v>
@@ -3185,10 +3228,10 @@
     </row>
     <row r="76">
       <c r="A76" s="9" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
-      <c r="B76" s="17">
-        <v>5.0</v>
+      <c r="B76" s="19">
+        <v>4.0</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3217,13 +3260,15 @@
     </row>
     <row r="77">
       <c r="A77" s="9" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B77" s="19">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="D77" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="E77" s="10"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -3249,10 +3294,10 @@
     </row>
     <row r="78">
       <c r="A78" s="9" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
-      <c r="B78" s="19">
-        <v>4.0</v>
+      <c r="B78" s="17">
+        <v>5.0</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3281,15 +3326,13 @@
     </row>
     <row r="79">
       <c r="A79" s="9" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B79" s="19">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C79" s="4"/>
-      <c r="D79" s="20" t="s">
-        <v>19</v>
-      </c>
+      <c r="D79" s="4"/>
       <c r="E79" s="10"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -3315,7 +3358,7 @@
     </row>
     <row r="80">
       <c r="A80" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B80" s="19">
         <v>1.0</v>
@@ -3349,13 +3392,13 @@
     </row>
     <row r="81">
       <c r="A81" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B81" s="19">
         <v>1.0</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D81" s="20" t="s">
         <v>19</v>
@@ -3385,15 +3428,15 @@
     </row>
     <row r="82">
       <c r="A82" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B82" s="19">
         <v>1.0</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
-      <c r="D82" s="20" t="s">
+      <c r="D82" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E82" s="10"/>
@@ -3421,13 +3464,13 @@
     </row>
     <row r="83">
       <c r="A83" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B83" s="19">
         <v>1.0</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D83" s="20" t="s">
         <v>19</v>
@@ -3484,8 +3527,8 @@
       <c r="Z84" s="4"/>
     </row>
     <row r="85">
-      <c r="A85" s="26" t="s">
-        <v>71</v>
+      <c r="A85" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>8</v>
@@ -3523,13 +3566,13 @@
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B86" s="19">
         <v>1.0</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>19</v>
@@ -3559,13 +3602,13 @@
     </row>
     <row r="87">
       <c r="A87" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B87" s="19">
         <v>1.0</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="10"/>
@@ -3593,13 +3636,13 @@
     </row>
     <row r="88">
       <c r="A88" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B88" s="19">
         <v>1.0</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="10"/>
@@ -3627,17 +3670,17 @@
     </row>
     <row r="89">
       <c r="A89" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B89" s="19">
         <v>1.0</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -29605,22 +29648,22 @@
     <hyperlink r:id="rId4" ref="D19"/>
     <hyperlink r:id="rId5" ref="D20"/>
     <hyperlink r:id="rId6" ref="D21"/>
-    <hyperlink r:id="rId7" ref="D22"/>
-    <hyperlink r:id="rId8" ref="D23"/>
-    <hyperlink r:id="rId9" ref="D36"/>
-    <hyperlink r:id="rId10" ref="D39"/>
-    <hyperlink r:id="rId11" ref="D40"/>
-    <hyperlink r:id="rId12" ref="D41"/>
-    <hyperlink r:id="rId13" ref="D42"/>
-    <hyperlink r:id="rId14" ref="D43"/>
-    <hyperlink r:id="rId15" ref="D59"/>
-    <hyperlink r:id="rId16" ref="D62"/>
-    <hyperlink r:id="rId17" ref="D63"/>
-    <hyperlink r:id="rId18" ref="D64"/>
-    <hyperlink r:id="rId19" ref="D65"/>
-    <hyperlink r:id="rId20" ref="D66"/>
-    <hyperlink r:id="rId21" ref="D67"/>
-    <hyperlink r:id="rId22" ref="D79"/>
+    <hyperlink r:id="rId7" ref="D23"/>
+    <hyperlink r:id="rId8" ref="D36"/>
+    <hyperlink r:id="rId9" ref="D39"/>
+    <hyperlink r:id="rId10" ref="D40"/>
+    <hyperlink r:id="rId11" ref="D41"/>
+    <hyperlink r:id="rId12" ref="D42"/>
+    <hyperlink r:id="rId13" ref="D43"/>
+    <hyperlink r:id="rId14" ref="D59"/>
+    <hyperlink r:id="rId15" ref="D62"/>
+    <hyperlink r:id="rId16" ref="D63"/>
+    <hyperlink r:id="rId17" ref="D64"/>
+    <hyperlink r:id="rId18" ref="D65"/>
+    <hyperlink r:id="rId19" ref="D66"/>
+    <hyperlink r:id="rId20" ref="D67"/>
+    <hyperlink r:id="rId21" ref="E67"/>
+    <hyperlink r:id="rId22" ref="D77"/>
     <hyperlink r:id="rId23" ref="D80"/>
     <hyperlink r:id="rId24" ref="D81"/>
     <hyperlink r:id="rId25" ref="D82"/>

--- a/BOM/Lineux Stealth r2t Bom.xlsx
+++ b/BOM/Lineux Stealth r2t Bom.xlsx
@@ -1017,7 +1017,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="17">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>

--- a/BOM/Lineux Stealth r2t Bom.xlsx
+++ b/BOM/Lineux Stealth r2t Bom.xlsx
@@ -1017,7 +1017,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="17">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
